--- a/Post_processing/Tables_after_wr_wb/Table_exp6.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Datetime</t>
   </si>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t>C_after_wb [dB]</t>
+  </si>
+  <si>
+    <t>Theta X bar</t>
+  </si>
+  <si>
+    <t>Theta X</t>
+  </si>
+  <si>
+    <t>Theta Y bar</t>
+  </si>
+  <si>
+    <t>Theta Y</t>
+  </si>
+  <si>
+    <t>Wb x</t>
+  </si>
+  <si>
+    <t>Wb y</t>
   </si>
 </sst>
 </file>
@@ -416,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P1"/>
+  <dimension ref="B1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="2:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,6 +485,24 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Post_processing/Tables_after_wr_wb/Table_exp6.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp6.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Datetime</t>
   </si>
   <si>
     <t>Filename</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Pitch</t>
   </si>
   <si>
     <t>Azimuth</t>
@@ -434,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:V1"/>
+  <dimension ref="B1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:22">
+    <row r="1" spans="2:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,6 +509,12 @@
       </c>
       <c r="V1" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Post_processing/Tables_after_wr_wb/Table_exp6.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Datetime</t>
   </si>
@@ -55,16 +55,22 @@
     <t>C_initial [dB]</t>
   </si>
   <si>
-    <t>C_after</t>
-  </si>
-  <si>
-    <t>C_after [dB]</t>
-  </si>
-  <si>
-    <t>C_after_wb</t>
-  </si>
-  <si>
-    <t>C_after_wb [dB]</t>
+    <t>C_after Wr</t>
+  </si>
+  <si>
+    <t>C_after Wr [dB]</t>
+  </si>
+  <si>
+    <t>C_after Wb Only</t>
+  </si>
+  <si>
+    <t>C_after Wb Only [dB]</t>
+  </si>
+  <si>
+    <t>C_after Wb</t>
+  </si>
+  <si>
+    <t>C_after Wb [dB]</t>
   </si>
   <si>
     <t>Theta X bar</t>
@@ -440,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:X1"/>
+  <dimension ref="B1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,6 +521,12 @@
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Post_processing/Tables_after_wr_wb/Table_exp6.xlsx
+++ b/Post_processing/Tables_after_wr_wb/Table_exp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Datetime</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Wb y</t>
+  </si>
+  <si>
+    <t>Exp Constant</t>
+  </si>
+  <si>
+    <t>Exp Constant [dB]</t>
   </si>
 </sst>
 </file>
@@ -446,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Z1"/>
+  <dimension ref="B1:AB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:26">
+    <row r="1" spans="2:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,6 +533,12 @@
       </c>
       <c r="Z1" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
